--- a/result.xlsx
+++ b/result.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,21 +356,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>이름: 가</t>
+          <t>이름: 김정답</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>점수: 0 / 5.0</t>
+          <t>점수: 10.0 / 10.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>틀린 문제: 1</t>
+          <t>틀린 문제: 없음</t>
         </is>
       </c>
     </row>
@@ -420,30 +420,492 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>객관식</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>객관식</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>객관식</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>이름: 박상현</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>점수: 3.0 / 10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>틀린 문제: 3, 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>문제 번호</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>문제 유형</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>마킹한 답</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>실제 정답</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>정답 여부</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>획득 점수</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>객관식</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>객관식</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>객관식</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>오답</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>객관식</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>오답</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>이름: 이수진</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>점수: 4.0 / 10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>틀린 문제: 1, 2, 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>문제 번호</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>문제 유형</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>마킹한 답</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>실제 정답</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>정답 여부</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>획득 점수</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>객관식</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>오답</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>객관식</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>오답</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>객관식</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>오답</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>객관식</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>--------------------------------------------------------------------------</t>
         </is>
